--- a/materials/list/match_list.xlsx
+++ b/materials/list/match_list.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E060E0-8BD4-4F25-9120-EF8E0A57C88D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20422041-B6AF-43A5-A0D1-4B17B677A1BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4600" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6440" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sin_fleet_type" sheetId="1" r:id="rId1"/>
+    <sheet name="offshore_fleet_type" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>General Cargo</t>
   </si>
@@ -114,6 +115,75 @@
   </si>
   <si>
     <t>cn_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offshore Dredger</t>
+  </si>
+  <si>
+    <t>Utility Support</t>
+  </si>
+  <si>
+    <t>PSV/Supply&gt;3,000 DWT</t>
+  </si>
+  <si>
+    <t>Accommodation Unit</t>
+  </si>
+  <si>
+    <t>Logistics</t>
+  </si>
+  <si>
+    <t>Mobile Production</t>
+  </si>
+  <si>
+    <t>Construction Support</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>AHTS &lt;8,000 BHP &amp; AHT</t>
+  </si>
+  <si>
+    <t>Construction Vessel</t>
+  </si>
+  <si>
+    <t>AHTS &gt;8,000 BHP</t>
+  </si>
+  <si>
+    <t>MDU</t>
+  </si>
+  <si>
+    <t>Self Elevating / Installation</t>
+  </si>
+  <si>
+    <t>PSV/Supply&lt;3,000 DWT</t>
+  </si>
+  <si>
+    <t>Rescue &amp; Salvage</t>
+  </si>
+  <si>
+    <t>建造施工装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产储运装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海工支持船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动钻井平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋调查船</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +204,37 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="FangSong"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="FangSong"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="FangSong"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -157,11 +258,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -445,7 +553,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -454,11 +562,11 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -466,7 +574,7 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -474,7 +582,7 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -482,7 +590,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -490,7 +598,7 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -498,7 +606,7 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -506,7 +614,7 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -514,7 +622,7 @@
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -522,7 +630,7 @@
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -530,7 +638,7 @@
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -538,7 +646,7 @@
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -546,7 +654,7 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -554,7 +662,7 @@
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -562,7 +670,7 @@
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -570,7 +678,7 @@
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -578,7 +686,7 @@
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -586,7 +694,7 @@
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -594,7 +702,7 @@
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -602,7 +710,7 @@
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -610,4 +718,155 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AB46CF-267D-4CD5-9549-52F30B909467}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B16">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>